--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFA5151-AD5C-413E-B8D3-4572562C72B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FB50D-73C4-4409-810D-554FFBD0836F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="ShopGoldTable" sheetId="1" r:id="rId1"/>
+    <sheet name="ShopDiamondTable" sheetId="2" r:id="rId1"/>
+    <sheet name="ShopGoldTable" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -61,12 +62,72 @@
   </si>
   <si>
     <t>GoldPack3</t>
+  </si>
+  <si>
+    <t>diamondPack|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverItemId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kor|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyingGems|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addText|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPack3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopUI_Popular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPack4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPack5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPack6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopUI_BestValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,8 +167,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,10 +490,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF7B62C-5221-4132-80C0-600E99CDA845}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5900</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12000</v>
+      </c>
+      <c r="E4">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
+        <v>65000</v>
+      </c>
+      <c r="E6">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>110</v>
+      </c>
+      <c r="D7" s="2">
+        <v>119000</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857BB14F-B5A9-439B-8654-2A237E9477FB}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FB50D-73C4-4409-810D-554FFBD0836F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E23950-C3DA-4BE1-889A-1B2249552B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="ShopDiamondTable" sheetId="2" r:id="rId1"/>
-    <sheet name="ShopGoldTable" sheetId="1" r:id="rId2"/>
+    <sheet name="ShopBoxTable" sheetId="3" r:id="rId1"/>
+    <sheet name="ShopDiamondTable" sheetId="2" r:id="rId2"/>
+    <sheet name="ShopGoldTable" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -118,6 +119,39 @@
   <si>
     <t>ShopUI_BestValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boxPack|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredDiamond|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boxName|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopUIName_CharacterBox</t>
+  </si>
+  <si>
+    <t>EquipmentBox1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopUIName_EquipmentBox1</t>
+  </si>
+  <si>
+    <t>EquipmentBox8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopUIName_EquipmentBox8</t>
   </si>
 </sst>
 </file>
@@ -490,10 +524,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379EAFC-CB26-42F6-8C7F-08347645E948}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF7B62C-5221-4132-80C0-600E99CDA845}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -620,7 +717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857BB14F-B5A9-439B-8654-2A237E9477FB}">
   <dimension ref="A1:F4"/>
   <sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E23950-C3DA-4BE1-889A-1B2249552B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE302B3-85D9-41A9-BE3E-A1AFF7F3D675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopBoxTable" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -63,62 +63,6 @@
   </si>
   <si>
     <t>GoldPack3</t>
-  </si>
-  <si>
-    <t>diamondPack|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverItemId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eng|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kor|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyingGems|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addText|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondPack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondPack2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondPack3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopUI_Popular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondPack4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondPack5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondPack6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopUI_BestValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>boxPack|String</t>
@@ -152,14 +96,49 @@
   </si>
   <si>
     <t>ShopUIName_EquipmentBox8</t>
+  </si>
+  <si>
+    <t>diamondPack|String</t>
+  </si>
+  <si>
+    <t>eng|String</t>
+  </si>
+  <si>
+    <t>kor|String</t>
+  </si>
+  <si>
+    <t>buyingGems|Int</t>
+  </si>
+  <si>
+    <t>DiamondPack1</t>
+  </si>
+  <si>
+    <t>DiamondPack2</t>
+  </si>
+  <si>
+    <t>DiamondPack3</t>
+  </si>
+  <si>
+    <t>ShopUI_Popular</t>
+  </si>
+  <si>
+    <t>DiamondPack4</t>
+  </si>
+  <si>
+    <t>DiamondPack5</t>
+  </si>
+  <si>
+    <t>DiamondPack6</t>
+  </si>
+  <si>
+    <t>ShopUI_BestValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
+  <numFmts count="1">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -208,7 +187,7 @@
     <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379EAFC-CB26-42F6-8C7F-08347645E948}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -538,46 +517,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF7B62C-5221-4132-80C0-600E99CDA845}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -603,27 +582,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -637,7 +616,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -651,7 +630,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
@@ -663,12 +642,12 @@
         <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>24</v>
@@ -682,7 +661,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>60</v>
@@ -696,7 +675,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>110</v>
@@ -708,7 +687,7 @@
         <v>2000</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE302B3-85D9-41A9-BE3E-A1AFF7F3D675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5214D4-A4D7-4A89-86D2-0B14A8184F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
@@ -101,12 +101,6 @@
     <t>diamondPack|String</t>
   </si>
   <si>
-    <t>eng|String</t>
-  </si>
-  <si>
-    <t>kor|String</t>
-  </si>
-  <si>
     <t>buyingGems|Int</t>
   </si>
   <si>
@@ -132,15 +126,18 @@
   </si>
   <si>
     <t>ShopUI_BestValue</t>
+  </si>
+  <si>
+    <t>eng|Float</t>
+  </si>
+  <si>
+    <t>kor|Int</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,14 +177,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,6 +569,7 @@
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>
@@ -587,14 +582,14 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -602,12 +597,12 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>2500</v>
       </c>
       <c r="E2">
@@ -616,12 +611,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>5900</v>
       </c>
       <c r="E3">
@@ -630,29 +625,29 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>12000</v>
       </c>
       <c r="E4">
         <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>24</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>25000</v>
       </c>
       <c r="E5">
@@ -661,12 +656,12 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>60</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>65000</v>
       </c>
       <c r="E6">
@@ -675,19 +670,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>110</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>119000</v>
       </c>
       <c r="E7">
         <v>2000</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5214D4-A4D7-4A89-86D2-0B14A8184F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379DF7AD-3B0F-42EE-B579-03F16E8D483E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopBoxTable" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>kor|Int</t>
+  </si>
+  <si>
+    <t>GoldBox1</t>
+  </si>
+  <si>
+    <t>GoldBox2</t>
+  </si>
+  <si>
+    <t>GoldBox3</t>
   </si>
 </sst>
 </file>
@@ -563,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF7B62C-5221-4132-80C0-600E99CDA845}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -695,7 +704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857BB14F-B5A9-439B-8654-2A237E9477FB}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -729,6 +740,9 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
       <c r="C2">
         <v>20</v>
       </c>
@@ -740,6 +754,9 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
       <c r="C3">
         <v>140</v>
       </c>
@@ -756,6 +773,9 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
       </c>
       <c r="C4">
         <v>280</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379DF7AD-3B0F-42EE-B579-03F16E8D483E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2607AF-C4A0-4620-B37D-11110AE24884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopBoxTable" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -65,82 +65,79 @@
     <t>GoldPack3</t>
   </si>
   <si>
+    <t>ShopUIName_CharacterBox</t>
+  </si>
+  <si>
+    <t>ShopUIName_EquipmentBox1</t>
+  </si>
+  <si>
+    <t>ShopUIName_EquipmentBox8</t>
+  </si>
+  <si>
+    <t>diamondPack|String</t>
+  </si>
+  <si>
+    <t>buyingGems|Int</t>
+  </si>
+  <si>
+    <t>DiamondPack1</t>
+  </si>
+  <si>
+    <t>DiamondPack2</t>
+  </si>
+  <si>
+    <t>DiamondPack3</t>
+  </si>
+  <si>
+    <t>ShopUI_Popular</t>
+  </si>
+  <si>
+    <t>DiamondPack4</t>
+  </si>
+  <si>
+    <t>DiamondPack5</t>
+  </si>
+  <si>
+    <t>DiamondPack6</t>
+  </si>
+  <si>
+    <t>ShopUI_BestValue</t>
+  </si>
+  <si>
+    <t>eng|Float</t>
+  </si>
+  <si>
+    <t>kor|Int</t>
+  </si>
+  <si>
+    <t>GoldBox1</t>
+  </si>
+  <si>
+    <t>GoldBox2</t>
+  </si>
+  <si>
+    <t>GoldBox3</t>
+  </si>
+  <si>
     <t>boxPack|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requiredDiamond|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>boxName|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CharacterBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopUIName_CharacterBox</t>
+  </si>
+  <si>
+    <t>ShopUI_BeyondOriginBox</t>
   </si>
   <si>
     <t>EquipmentBox1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopUIName_EquipmentBox1</t>
   </si>
   <si>
     <t>EquipmentBox8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopUIName_EquipmentBox8</t>
-  </si>
-  <si>
-    <t>diamondPack|String</t>
-  </si>
-  <si>
-    <t>buyingGems|Int</t>
-  </si>
-  <si>
-    <t>DiamondPack1</t>
-  </si>
-  <si>
-    <t>DiamondPack2</t>
-  </si>
-  <si>
-    <t>DiamondPack3</t>
-  </si>
-  <si>
-    <t>ShopUI_Popular</t>
-  </si>
-  <si>
-    <t>DiamondPack4</t>
-  </si>
-  <si>
-    <t>DiamondPack5</t>
-  </si>
-  <si>
-    <t>DiamondPack6</t>
-  </si>
-  <si>
-    <t>ShopUI_BestValue</t>
-  </si>
-  <si>
-    <t>eng|Float</t>
-  </si>
-  <si>
-    <t>kor|Int</t>
-  </si>
-  <si>
-    <t>GoldBox1</t>
-  </si>
-  <si>
-    <t>GoldBox2</t>
-  </si>
-  <si>
-    <t>GoldBox3</t>
+  </si>
+  <si>
+    <t>ShopUI_GetSevenPlusOne</t>
   </si>
 </sst>
 </file>
@@ -507,59 +504,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379EAFC-CB26-42F6-8C7F-08347645E948}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -586,19 +595,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -606,7 +615,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -620,7 +629,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -634,7 +643,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
@@ -646,12 +655,12 @@
         <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>24</v>
@@ -665,7 +674,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>60</v>
@@ -679,7 +688,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>110</v>
@@ -691,7 +700,7 @@
         <v>2000</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857BB14F-B5A9-439B-8654-2A237E9477FB}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -741,7 +750,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -755,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>140</v>
@@ -775,7 +784,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>280</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2607AF-C4A0-4620-B37D-11110AE24884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775B93EA-E681-4B9E-9E78-838D3C192C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="ShopBoxTable" sheetId="3" r:id="rId1"/>
-    <sheet name="ShopDiamondTable" sheetId="2" r:id="rId2"/>
-    <sheet name="ShopGoldTable" sheetId="1" r:id="rId3"/>
+    <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
+    <sheet name="ShopBoxTable" sheetId="3" r:id="rId2"/>
+    <sheet name="ShopDiamondTable" sheetId="2" r:id="rId3"/>
+    <sheet name="ShopGoldTable" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -138,6 +139,63 @@
   </si>
   <si>
     <t>ShopUI_GetSevenPlusOne</t>
+  </si>
+  <si>
+    <t>level|Int</t>
+  </si>
+  <si>
+    <t>beforEng|Float</t>
+  </si>
+  <si>
+    <t>beforeKor|Int</t>
+  </si>
+  <si>
+    <t>imagePrefab|String</t>
+  </si>
+  <si>
+    <t>buyingEnergy|Int</t>
+  </si>
+  <si>
+    <t>buyingEquipKey|Int</t>
+  </si>
+  <si>
+    <t>buyingLegendEquipKey|Int</t>
+  </si>
+  <si>
+    <t>showingDrop|String</t>
+  </si>
+  <si>
+    <t>equipKeyDrop|String</t>
+  </si>
+  <si>
+    <t>TeamLevelCashPack0</t>
+  </si>
+  <si>
+    <t>ShopGoldDia</t>
+  </si>
+  <si>
+    <t>TeamLevelCashPack1</t>
+  </si>
+  <si>
+    <t>Wkdwkdql</t>
+  </si>
+  <si>
+    <t>TeamLevelCashPack2</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqll</t>
+  </si>
+  <si>
+    <t>TeamLevelCashPack3</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlm</t>
+  </si>
+  <si>
+    <t>TeamLevelCashPack4</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlq</t>
   </si>
 </sst>
 </file>
@@ -503,10 +561,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503C9CBF-E323-41DA-86AF-B7B01C89FD16}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.98</v>
+      </c>
+      <c r="C2">
+        <v>2200</v>
+      </c>
+      <c r="D2">
+        <v>2.99</v>
+      </c>
+      <c r="E2">
+        <v>1100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>20000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>7.98</v>
+      </c>
+      <c r="C3">
+        <v>5000</v>
+      </c>
+      <c r="D3">
+        <v>3.99</v>
+      </c>
+      <c r="E3">
+        <v>2500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>40000</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>9.98</v>
+      </c>
+      <c r="C4">
+        <v>11800</v>
+      </c>
+      <c r="D4">
+        <v>4.99</v>
+      </c>
+      <c r="E4">
+        <v>5900</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>50000</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>11.98</v>
+      </c>
+      <c r="C5">
+        <v>24000</v>
+      </c>
+      <c r="D5">
+        <v>5.99</v>
+      </c>
+      <c r="E5">
+        <v>12000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>170</v>
+      </c>
+      <c r="I5">
+        <v>50000</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>13.98</v>
+      </c>
+      <c r="C6">
+        <v>50000</v>
+      </c>
+      <c r="D6">
+        <v>6.99</v>
+      </c>
+      <c r="E6">
+        <v>25000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6">
+        <v>360</v>
+      </c>
+      <c r="I6">
+        <v>50000</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379EAFC-CB26-42F6-8C7F-08347645E948}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -577,7 +871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF7B62C-5221-4132-80C0-600E99CDA845}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -709,7 +1003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857BB14F-B5A9-439B-8654-2A237E9477FB}">
   <dimension ref="A1:F4"/>
   <sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775B93EA-E681-4B9E-9E78-838D3C192C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397120C1-A4A2-468C-B675-D25FE8D560A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>Wjstjfwkdqlq</t>
+  </si>
+  <si>
+    <t>LevelBox0</t>
+  </si>
+  <si>
+    <t>LevelBox1</t>
+  </si>
+  <si>
+    <t>LevelBox2</t>
+  </si>
+  <si>
+    <t>LevelBox3</t>
+  </si>
+  <si>
+    <t>LevelBox4</t>
   </si>
 </sst>
 </file>
@@ -564,7 +579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503C9CBF-E323-41DA-86AF-B7B01C89FD16}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -640,6 +657,9 @@
       <c r="F2" t="s">
         <v>44</v>
       </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
       <c r="H2">
         <v>30</v>
       </c>
@@ -669,6 +689,9 @@
       <c r="F3" t="s">
         <v>46</v>
       </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
       <c r="H3">
         <v>50</v>
       </c>
@@ -704,6 +727,9 @@
       <c r="F4" t="s">
         <v>48</v>
       </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
       <c r="H4">
         <v>80</v>
       </c>
@@ -739,11 +765,17 @@
       <c r="F5" t="s">
         <v>50</v>
       </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
       <c r="H5">
         <v>170</v>
       </c>
       <c r="I5">
         <v>50000</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -773,6 +805,9 @@
       </c>
       <c r="F6" t="s">
         <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
       </c>
       <c r="H6">
         <v>360</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397120C1-A4A2-468C-B675-D25FE8D560A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411BC6EE-41A1-4D64-B71B-A2C383806232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
-    <sheet name="ShopBoxTable" sheetId="3" r:id="rId2"/>
-    <sheet name="ShopDiamondTable" sheetId="2" r:id="rId3"/>
-    <sheet name="ShopGoldTable" sheetId="1" r:id="rId4"/>
+    <sheet name="ShopDailyDiamondTable" sheetId="5" r:id="rId2"/>
+    <sheet name="ShopBoxTable" sheetId="3" r:id="rId3"/>
+    <sheet name="ShopDiamondTable" sheetId="2" r:id="rId4"/>
+    <sheet name="ShopGoldTable" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -211,6 +212,33 @@
   </si>
   <si>
     <t>LevelBox4</t>
+  </si>
+  <si>
+    <t>times|Int</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox0</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox1</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox2</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox3</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox4</t>
+  </si>
+  <si>
+    <t>dailyPack|String</t>
+  </si>
+  <si>
+    <t>DailyDiamond</t>
+  </si>
+  <si>
+    <t>ShopUIName_DailyDiamond</t>
   </si>
 </sst>
 </file>
@@ -577,11 +605,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503C9CBF-E323-41DA-86AF-B7B01C89FD16}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -590,11 +616,12 @@
     <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -632,13 +659,19 @@
         <v>41</v>
       </c>
       <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -666,11 +699,17 @@
       <c r="I2">
         <v>20000</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -701,14 +740,20 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>45</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -739,14 +784,20 @@
       <c r="L4">
         <v>2</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
         <v>45</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>25</v>
       </c>
@@ -780,14 +831,20 @@
       <c r="L5">
         <v>3</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" t="s">
         <v>45</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>35</v>
       </c>
@@ -818,10 +875,16 @@
       <c r="L6">
         <v>7</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
         <v>45</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -832,6 +895,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC30A79-9B61-43A7-919C-8403AA8B9DC1}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>2.99</v>
+      </c>
+      <c r="C2">
+        <v>1100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379EAFC-CB26-42F6-8C7F-08347645E948}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -906,7 +1027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF7B62C-5221-4132-80C0-600E99CDA845}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -1038,7 +1159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857BB14F-B5A9-439B-8654-2A237E9477FB}">
   <dimension ref="A1:F4"/>
   <sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411BC6EE-41A1-4D64-B71B-A2C383806232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D5C79D-5074-49DD-99D0-7B9218759F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>ShopUIName_DailyDiamond</t>
+  </si>
+  <si>
+    <t>dailyCount|Int</t>
+  </si>
+  <si>
+    <t>GemsDailyGems|Int</t>
+  </si>
+  <si>
+    <t>ShopUI_HalfMonthItem</t>
   </si>
 </sst>
 </file>
@@ -896,20 +905,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC30A79-9B61-43A7-919C-8403AA8B9DC1}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="5" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -923,27 +935,48 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2">
-        <v>2.99</v>
+        <v>5.99</v>
       </c>
       <c r="C2">
-        <v>1100</v>
+        <v>5500</v>
       </c>
       <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>360</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D5C79D-5074-49DD-99D0-7B9218759F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98671482-759B-479B-B2F1-9AC902532950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
     <sheet name="ShopDailyDiamondTable" sheetId="5" r:id="rId2"/>
-    <sheet name="ShopBoxTable" sheetId="3" r:id="rId3"/>
-    <sheet name="ShopDiamondTable" sheetId="2" r:id="rId4"/>
-    <sheet name="ShopGoldTable" sheetId="1" r:id="rId5"/>
+    <sheet name="DailyShopTypeTable" sheetId="6" r:id="rId3"/>
+    <sheet name="ShopBoxTable" sheetId="3" r:id="rId4"/>
+    <sheet name="ShopDiamondTable" sheetId="2" r:id="rId5"/>
+    <sheet name="ShopGoldTable" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -248,6 +249,48 @@
   </si>
   <si>
     <t>ShopUI_HalfMonthItem</t>
+  </si>
+  <si>
+    <t>type|String</t>
+  </si>
+  <si>
+    <t>fe</t>
+  </si>
+  <si>
+    <t>bn</t>
+  </si>
+  <si>
+    <t>ShopUI_OnlyGradeNormal</t>
+  </si>
+  <si>
+    <t>bh</t>
+  </si>
+  <si>
+    <t>ShopUI_OnlyGradeHeroic</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>fl1</t>
+  </si>
+  <si>
+    <t>fl2</t>
+  </si>
+  <si>
+    <t>fl3</t>
+  </si>
+  <si>
+    <t>uch</t>
+  </si>
+  <si>
+    <t>upn</t>
+  </si>
+  <si>
+    <t>uph</t>
   </si>
 </sst>
 </file>
@@ -907,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC30A79-9B61-43A7-919C-8403AA8B9DC1}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -986,6 +1029,105 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4927A683-3F59-4F20-9C92-1F33818D29A6}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379EAFC-CB26-42F6-8C7F-08347645E948}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1060,7 +1202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF7B62C-5221-4132-80C0-600E99CDA845}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -1192,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857BB14F-B5A9-439B-8654-2A237E9477FB}">
   <dimension ref="A1:F4"/>
   <sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98671482-759B-479B-B2F1-9AC902532950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851CE988-1D0C-4D9B-BBF8-48243EE484A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4927A683-3F59-4F20-9C92-1F33818D29A6}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1131,9 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379EAFC-CB26-42F6-8C7F-08347645E948}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1162,7 +1160,7 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1176,7 +1174,7 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1187,7 +1185,7 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1243,13 +1241,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1263,7 +1261,7 @@
         <v>5900</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1277,7 +1275,7 @@
         <v>12000</v>
       </c>
       <c r="E4">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -1294,7 +1292,7 @@
         <v>25000</v>
       </c>
       <c r="E5">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1308,7 +1306,7 @@
         <v>65000</v>
       </c>
       <c r="E6">
-        <v>950</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1322,7 +1320,7 @@
         <v>119000</v>
       </c>
       <c r="E7">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -1338,9 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857BB14F-B5A9-439B-8654-2A237E9477FB}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1378,10 +1374,10 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>1500</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1395,13 +1391,13 @@
         <v>140</v>
       </c>
       <c r="D3">
-        <v>12000</v>
+        <v>48000</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1412,16 +1408,16 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="D4">
-        <v>26000</v>
+        <v>125000</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851CE988-1D0C-4D9B-BBF8-48243EE484A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0600610-5581-4645-8FE2-519939660FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
@@ -1131,7 +1131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379EAFC-CB26-42F6-8C7F-08347645E948}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1160,7 +1162,7 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0600610-5581-4645-8FE2-519939660FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62BA28-9651-4180-A6DF-715AA71BB948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
     <sheet name="ShopDailyDiamondTable" sheetId="5" r:id="rId2"/>
-    <sheet name="DailyShopTypeTable" sheetId="6" r:id="rId3"/>
-    <sheet name="ShopBoxTable" sheetId="3" r:id="rId4"/>
-    <sheet name="ShopDiamondTable" sheetId="2" r:id="rId5"/>
-    <sheet name="ShopGoldTable" sheetId="1" r:id="rId6"/>
+    <sheet name="ShopBoxTable" sheetId="3" r:id="rId3"/>
+    <sheet name="ShopDiamondTable" sheetId="2" r:id="rId4"/>
+    <sheet name="ShopGoldTable" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -251,46 +250,49 @@
     <t>ShopUI_HalfMonthItem</t>
   </si>
   <si>
-    <t>type|String</t>
-  </si>
-  <si>
-    <t>fe</t>
-  </si>
-  <si>
-    <t>bn</t>
-  </si>
-  <si>
-    <t>ShopUI_OnlyGradeNormal</t>
-  </si>
-  <si>
-    <t>bh</t>
-  </si>
-  <si>
-    <t>ShopUI_OnlyGradeHeroic</t>
-  </si>
-  <si>
-    <t>fc</t>
-  </si>
-  <si>
-    <t>fp</t>
-  </si>
-  <si>
-    <t>fl1</t>
-  </si>
-  <si>
-    <t>fl2</t>
-  </si>
-  <si>
-    <t>fl3</t>
-  </si>
-  <si>
-    <t>uch</t>
-  </si>
-  <si>
-    <t>upn</t>
-  </si>
-  <si>
-    <t>uph</t>
+    <t>Wjstjfwkdqln</t>
+  </si>
+  <si>
+    <t>TeamLevelCashPack5</t>
+  </si>
+  <si>
+    <t>LevelBox5</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox5</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlo</t>
+  </si>
+  <si>
+    <t>TeamLevelCashPack6</t>
+  </si>
+  <si>
+    <t>LevelBox6</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox6</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlp</t>
+  </si>
+  <si>
+    <t>TeamLevelCashPack7</t>
+  </si>
+  <si>
+    <t>LevelBox7</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox7</t>
+  </si>
+  <si>
+    <t>TeamLevelCashPack8</t>
+  </si>
+  <si>
+    <t>LevelBox8</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox8</t>
   </si>
 </sst>
 </file>
@@ -657,9 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503C9CBF-E323-41DA-86AF-B7B01C89FD16}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -728,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.98</v>
+        <v>3.99</v>
       </c>
       <c r="C2">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="D2">
-        <v>2.99</v>
+        <v>0.99</v>
       </c>
       <c r="E2">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -749,10 +753,10 @@
         <v>30</v>
       </c>
       <c r="I2">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>60</v>
@@ -766,13 +770,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="C3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D3">
-        <v>3.99</v>
+        <v>1.99</v>
       </c>
       <c r="E3">
         <v>2500</v>
@@ -787,13 +791,13 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>61</v>
@@ -810,16 +814,16 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>9.98</v>
+        <v>11.99</v>
       </c>
       <c r="C4">
-        <v>11800</v>
+        <v>16000</v>
       </c>
       <c r="D4">
-        <v>4.99</v>
+        <v>2.99</v>
       </c>
       <c r="E4">
-        <v>5900</v>
+        <v>3900</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -828,10 +832,10 @@
         <v>56</v>
       </c>
       <c r="H4">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I4">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -854,16 +858,16 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>11.98</v>
+        <v>15.99</v>
       </c>
       <c r="C5">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="D5">
-        <v>5.99</v>
+        <v>3.99</v>
       </c>
       <c r="E5">
-        <v>12000</v>
+        <v>4900</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -872,13 +876,10 @@
         <v>57</v>
       </c>
       <c r="H5">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="I5">
-        <v>50000</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
+        <v>30000</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -901,16 +902,16 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <v>13.98</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="C6">
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="D6">
-        <v>6.99</v>
+        <v>4.99</v>
       </c>
       <c r="E6">
-        <v>25000</v>
+        <v>5900</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
@@ -919,13 +920,13 @@
         <v>58</v>
       </c>
       <c r="H6">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="I6">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -937,6 +938,182 @@
         <v>45</v>
       </c>
       <c r="P6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>23.99</v>
+      </c>
+      <c r="C7">
+        <v>30000</v>
+      </c>
+      <c r="D7">
+        <v>5.99</v>
+      </c>
+      <c r="E7">
+        <v>7500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>35000</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>35.99</v>
+      </c>
+      <c r="C8">
+        <v>40000</v>
+      </c>
+      <c r="D8">
+        <v>8.99</v>
+      </c>
+      <c r="E8">
+        <v>9900</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8">
+        <v>120</v>
+      </c>
+      <c r="I8">
+        <v>35000</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>39.99</v>
+      </c>
+      <c r="C9">
+        <v>45000</v>
+      </c>
+      <c r="D9">
+        <v>9.99</v>
+      </c>
+      <c r="E9">
+        <v>11000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9">
+        <v>120</v>
+      </c>
+      <c r="I9">
+        <v>40000</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>75</v>
+      </c>
+      <c r="B10">
+        <v>43.99</v>
+      </c>
+      <c r="C10">
+        <v>50000</v>
+      </c>
+      <c r="D10">
+        <v>10.99</v>
+      </c>
+      <c r="E10">
+        <v>12000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10">
+        <v>135</v>
+      </c>
+      <c r="I10">
+        <v>45000</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -950,9 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC30A79-9B61-43A7-919C-8403AA8B9DC1}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -998,16 +1173,16 @@
         <v>66</v>
       </c>
       <c r="B2">
-        <v>5.99</v>
+        <v>29.99</v>
       </c>
       <c r="C2">
-        <v>5500</v>
+        <v>33000</v>
       </c>
       <c r="D2" t="s">
         <v>66</v>
       </c>
       <c r="E2">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -1029,109 +1204,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4927A683-3F59-4F20-9C92-1F33818D29A6}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379EAFC-CB26-42F6-8C7F-08347645E948}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1202,11 +1278,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF7B62C-5221-4132-80C0-600E99CDA845}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1243,10 +1321,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D2">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -1257,7 +1335,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>4.99</v>
       </c>
       <c r="D3">
         <v>5900</v>
@@ -1271,7 +1349,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>11</v>
+        <v>9.99</v>
       </c>
       <c r="D4">
         <v>12000</v>
@@ -1288,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>24</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="D5">
         <v>25000</v>
@@ -1302,7 +1380,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>60</v>
+        <v>49.99</v>
       </c>
       <c r="D6">
         <v>65000</v>
@@ -1316,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>110</v>
+        <v>99.99</v>
       </c>
       <c r="D7">
         <v>119000</v>
@@ -1334,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857BB14F-B5A9-439B-8654-2A237E9477FB}">
   <dimension ref="A1:F4"/>
   <sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62BA28-9651-4180-A6DF-715AA71BB948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD5ACC7-A20C-4796-87F6-180F5455E72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
@@ -750,7 +750,7 @@
         <v>54</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>15000</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD5ACC7-A20C-4796-87F6-180F5455E72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BA45BE-81F7-4D76-BB77-9E4152D9E34E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -112,15 +112,6 @@
     <t>kor|Int</t>
   </si>
   <si>
-    <t>GoldBox1</t>
-  </si>
-  <si>
-    <t>GoldBox2</t>
-  </si>
-  <si>
-    <t>GoldBox3</t>
-  </si>
-  <si>
     <t>boxPack|String</t>
   </si>
   <si>
@@ -199,21 +190,6 @@
     <t>Wjstjfwkdqlq</t>
   </si>
   <si>
-    <t>LevelBox0</t>
-  </si>
-  <si>
-    <t>LevelBox1</t>
-  </si>
-  <si>
-    <t>LevelBox2</t>
-  </si>
-  <si>
-    <t>LevelBox3</t>
-  </si>
-  <si>
-    <t>LevelBox4</t>
-  </si>
-  <si>
     <t>times|Int</t>
   </si>
   <si>
@@ -256,9 +232,6 @@
     <t>TeamLevelCashPack5</t>
   </si>
   <si>
-    <t>LevelBox5</t>
-  </si>
-  <si>
     <t>ShopUIName_LevelBox5</t>
   </si>
   <si>
@@ -268,9 +241,6 @@
     <t>TeamLevelCashPack6</t>
   </si>
   <si>
-    <t>LevelBox6</t>
-  </si>
-  <si>
     <t>ShopUIName_LevelBox6</t>
   </si>
   <si>
@@ -280,19 +250,70 @@
     <t>TeamLevelCashPack7</t>
   </si>
   <si>
-    <t>LevelBox7</t>
-  </si>
-  <si>
     <t>ShopUIName_LevelBox7</t>
   </si>
   <si>
     <t>TeamLevelCashPack8</t>
   </si>
   <si>
-    <t>LevelBox8</t>
-  </si>
-  <si>
     <t>ShopUIName_LevelBox8</t>
+  </si>
+  <si>
+    <t>levelbox0</t>
+  </si>
+  <si>
+    <t>levelbox1</t>
+  </si>
+  <si>
+    <t>levelbox2</t>
+  </si>
+  <si>
+    <t>levelbox3</t>
+  </si>
+  <si>
+    <t>levelbox4</t>
+  </si>
+  <si>
+    <t>levelbox5</t>
+  </si>
+  <si>
+    <t>levelbox6</t>
+  </si>
+  <si>
+    <t>levelbox7</t>
+  </si>
+  <si>
+    <t>levelbox8</t>
+  </si>
+  <si>
+    <t>dailydiamond</t>
+  </si>
+  <si>
+    <t>diamondbox1</t>
+  </si>
+  <si>
+    <t>diamondbox2</t>
+  </si>
+  <si>
+    <t>diamondbox3</t>
+  </si>
+  <si>
+    <t>diamondbox4</t>
+  </si>
+  <si>
+    <t>diamondbox5</t>
+  </si>
+  <si>
+    <t>diamondbox6</t>
+  </si>
+  <si>
+    <t>goldbox1</t>
+  </si>
+  <si>
+    <t>goldbox2</t>
+  </si>
+  <si>
+    <t>goldbox3</t>
   </si>
 </sst>
 </file>
@@ -661,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503C9CBF-E323-41DA-86AF-B7B01C89FD16}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -679,13 +700,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -694,7 +715,7 @@
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -706,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
-      </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -744,10 +765,10 @@
         <v>1200</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -759,10 +780,10 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -782,10 +803,10 @@
         <v>2500</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -800,13 +821,13 @@
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -826,10 +847,10 @@
         <v>3900</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>65</v>
@@ -844,13 +865,13 @@
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -870,10 +891,10 @@
         <v>4900</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>80</v>
@@ -888,13 +909,13 @@
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -914,10 +935,10 @@
         <v>5900</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -932,13 +953,13 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -958,10 +979,10 @@
         <v>7500</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -976,13 +997,13 @@
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1002,10 +1023,10 @@
         <v>9900</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H8">
         <v>120</v>
@@ -1020,13 +1041,13 @@
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1046,7 +1067,7 @@
         <v>11000</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
         <v>81</v>
@@ -1064,13 +1085,13 @@
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1090,10 +1111,10 @@
         <v>12000</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H10">
         <v>135</v>
@@ -1108,13 +1129,13 @@
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1162,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -1156,13 +1177,13 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -1170,7 +1191,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>29.99</v>
@@ -1179,7 +1200,7 @@
         <v>33000</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>240</v>
@@ -1191,10 +1212,10 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1221,13 +1242,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1235,7 +1256,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -1244,12 +1265,12 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1260,7 +1281,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>35</v>
@@ -1269,7 +1290,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1320,6 +1341,9 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
       <c r="C2" s="1">
         <v>0.99</v>
       </c>
@@ -1334,6 +1358,9 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
       <c r="C3" s="1">
         <v>4.99</v>
       </c>
@@ -1348,6 +1375,9 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
       <c r="C4" s="1">
         <v>9.99</v>
       </c>
@@ -1365,6 +1395,9 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
       <c r="C5" s="1">
         <v>19.989999999999998</v>
       </c>
@@ -1379,6 +1412,9 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
       <c r="C6" s="1">
         <v>49.99</v>
       </c>
@@ -1392,6 +1428,9 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
       </c>
       <c r="C7" s="1">
         <v>99.99</v>
@@ -1416,7 +1455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857BB14F-B5A9-439B-8654-2A237E9477FB}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1451,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -1465,7 +1506,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>140</v>
@@ -1485,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>320</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BA45BE-81F7-4D76-BB77-9E4152D9E34E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD88658-4D5B-42D0-93A7-601205C0D2F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
@@ -682,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503C9CBF-E323-41DA-86AF-B7B01C89FD16}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1011,13 +1011,13 @@
         <v>55</v>
       </c>
       <c r="B8">
-        <v>35.99</v>
+        <v>31.99</v>
       </c>
       <c r="C8">
         <v>40000</v>
       </c>
       <c r="D8">
-        <v>8.99</v>
+        <v>7.99</v>
       </c>
       <c r="E8">
         <v>9900</v>
@@ -1055,13 +1055,13 @@
         <v>65</v>
       </c>
       <c r="B9">
-        <v>39.99</v>
+        <v>35.99</v>
       </c>
       <c r="C9">
         <v>45000</v>
       </c>
       <c r="D9">
-        <v>9.99</v>
+        <v>8.99</v>
       </c>
       <c r="E9">
         <v>11000</v>
@@ -1099,13 +1099,13 @@
         <v>75</v>
       </c>
       <c r="B10">
-        <v>43.99</v>
+        <v>39.99</v>
       </c>
       <c r="C10">
         <v>50000</v>
       </c>
       <c r="D10">
-        <v>10.99</v>
+        <v>9.99</v>
       </c>
       <c r="E10">
         <v>12000</v>
@@ -1455,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857BB14F-B5A9-439B-8654-2A237E9477FB}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD88658-4D5B-42D0-93A7-601205C0D2F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA5CBE2-CD98-42CF-B70C-C7ABEDA269F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
@@ -752,12 +752,6 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>3.99</v>
-      </c>
-      <c r="C2">
-        <v>5000</v>
-      </c>
       <c r="D2">
         <v>0.99</v>
       </c>
@@ -790,12 +784,6 @@
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>7.99</v>
-      </c>
-      <c r="C3">
-        <v>10000</v>
-      </c>
       <c r="D3">
         <v>1.99</v>
       </c>
@@ -834,12 +822,6 @@
       <c r="A4">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>11.99</v>
-      </c>
-      <c r="C4">
-        <v>16000</v>
-      </c>
       <c r="D4">
         <v>2.99</v>
       </c>
@@ -878,12 +860,6 @@
       <c r="A5">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>15.99</v>
-      </c>
-      <c r="C5">
-        <v>20000</v>
-      </c>
       <c r="D5">
         <v>3.99</v>
       </c>
@@ -922,12 +898,6 @@
       <c r="A6">
         <v>35</v>
       </c>
-      <c r="B6">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="C6">
-        <v>24000</v>
-      </c>
       <c r="D6">
         <v>4.99</v>
       </c>
@@ -966,12 +936,6 @@
       <c r="A7">
         <v>45</v>
       </c>
-      <c r="B7">
-        <v>23.99</v>
-      </c>
-      <c r="C7">
-        <v>30000</v>
-      </c>
       <c r="D7">
         <v>5.99</v>
       </c>
@@ -1010,12 +974,6 @@
       <c r="A8">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>31.99</v>
-      </c>
-      <c r="C8">
-        <v>40000</v>
-      </c>
       <c r="D8">
         <v>7.99</v>
       </c>
@@ -1054,12 +1012,6 @@
       <c r="A9">
         <v>65</v>
       </c>
-      <c r="B9">
-        <v>35.99</v>
-      </c>
-      <c r="C9">
-        <v>45000</v>
-      </c>
       <c r="D9">
         <v>8.99</v>
       </c>
@@ -1097,12 +1049,6 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>75</v>
-      </c>
-      <c r="B10">
-        <v>39.99</v>
-      </c>
-      <c r="C10">
-        <v>50000</v>
       </c>
       <c r="D10">
         <v>9.99</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA5CBE2-CD98-42CF-B70C-C7ABEDA269F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89646D24-D3BF-484B-93DF-AAC644CF556C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ShopBoxTable" sheetId="3" r:id="rId3"/>
     <sheet name="ShopDiamondTable" sheetId="2" r:id="rId4"/>
     <sheet name="ShopGoldTable" sheetId="1" r:id="rId5"/>
+    <sheet name="ShopReturnScrollTable" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -314,6 +315,24 @@
   </si>
   <si>
     <t>goldbox3</t>
+  </si>
+  <si>
+    <t>returnScrollPack|String</t>
+  </si>
+  <si>
+    <t>buyingReturnScrolls|Int</t>
+  </si>
+  <si>
+    <t>ReturnScrollPack1</t>
+  </si>
+  <si>
+    <t>returnscrollbox1</t>
+  </si>
+  <si>
+    <t>ReturnScrollPack2</t>
+  </si>
+  <si>
+    <t>returnscrollbox2</t>
   </si>
 </sst>
 </file>
@@ -682,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503C9CBF-E323-41DA-86AF-B7B01C89FD16}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1491,4 +1510,81 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0209302A-7690-4629-9665-49F1523EB48E}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>1.99</v>
+      </c>
+      <c r="D2">
+        <v>2500</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>7.99</v>
+      </c>
+      <c r="D3">
+        <v>9900</v>
+      </c>
+      <c r="E3">
+        <v>5500</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89646D24-D3BF-484B-93DF-AAC644CF556C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489226C1-5CCA-49D2-9A99-D785223ACE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
@@ -1516,7 +1516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0209302A-7690-4629-9665-49F1523EB48E}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1540,7 +1542,7 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>94</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489226C1-5CCA-49D2-9A99-D785223ACE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E82187-C2A6-468F-92EE-9F06F6EA7535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -188,9 +188,6 @@
     <t>TeamLevelCashPack4</t>
   </si>
   <si>
-    <t>Wjstjfwkdqlq</t>
-  </si>
-  <si>
     <t>times|Int</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
   </si>
   <si>
     <t>ShopUIName_LevelBox6</t>
-  </si>
-  <si>
-    <t>Wjstjfwkdqlp</t>
   </si>
   <si>
     <t>TeamLevelCashPack7</t>
@@ -701,9 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503C9CBF-E323-41DA-86AF-B7B01C89FD16}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -755,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="M1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s">
         <v>26</v>
@@ -781,7 +773,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -793,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
         <v>42</v>
@@ -813,7 +805,7 @@
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -828,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>42</v>
@@ -851,7 +843,7 @@
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>65</v>
@@ -866,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
@@ -889,7 +881,7 @@
         <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5">
         <v>80</v>
@@ -898,19 +890,19 @@
         <v>30000</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
         <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -927,7 +919,7 @@
         <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -936,19 +928,19 @@
         <v>30000</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
         <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -962,10 +954,10 @@
         <v>7500</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -974,19 +966,19 @@
         <v>35000</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1000,10 +992,10 @@
         <v>9900</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H8">
         <v>120</v>
@@ -1012,19 +1004,19 @@
         <v>35000</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1038,10 +1030,10 @@
         <v>11000</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H9">
         <v>120</v>
@@ -1050,19 +1042,19 @@
         <v>40000</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M9">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O9" t="s">
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1076,10 +1068,10 @@
         <v>12000</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H10">
         <v>135</v>
@@ -1088,19 +1080,19 @@
         <v>45000</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1119,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -1142,10 +1134,10 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
         <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
       </c>
       <c r="H1" t="s">
         <v>26</v>
@@ -1156,7 +1148,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>29.99</v>
@@ -1165,7 +1157,7 @@
         <v>33000</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>240</v>
@@ -1177,10 +1169,10 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1299,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1">
         <v>0.99</v>
@@ -1324,7 +1316,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1">
         <v>4.99</v>
@@ -1341,7 +1333,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1">
         <v>9.99</v>
@@ -1361,7 +1353,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1">
         <v>19.989999999999998</v>
@@ -1378,7 +1370,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1">
         <v>49.99</v>
@@ -1395,7 +1387,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1">
         <v>99.99</v>
@@ -1457,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -1471,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>140</v>
@@ -1491,7 +1483,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>320</v>
@@ -1516,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0209302A-7690-4629-9665-49F1523EB48E}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1530,7 +1522,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1545,15 +1537,15 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>1.99</v>
@@ -1567,10 +1559,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>7.99</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E82187-C2A6-468F-92EE-9F06F6EA7535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D28BCAC-A802-4C4D-92A7-BB75806E2629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{44AAEA6A-F236-46B1-B781-347611D4F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>goldPack|String</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>returnscrollbox2</t>
+  </si>
+  <si>
+    <t>ShopUIName_EquipmentBox45</t>
+  </si>
+  <si>
+    <t>ShopUI_Get35Plus10</t>
+  </si>
+  <si>
+    <t>EquipmentBox45</t>
   </si>
 </sst>
 </file>
@@ -695,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503C9CBF-E323-41DA-86AF-B7B01C89FD16}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1183,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379EAFC-CB26-42F6-8C7F-08347645E948}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1248,6 +1257,20 @@
       </c>
       <c r="D4" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
